--- a/hebrewOutputs/hebrew82Comperation_1_Common_alpha=0.2.xlsx
+++ b/hebrewOutputs/hebrew82Comperation_1_Common_alpha=0.2.xlsx
@@ -340,6 +340,9 @@
     <t>?l/s</t>
   </si>
   <si>
+    <t>concern</t>
+  </si>
+  <si>
     <t>הוא יעבור דקירות יומיות.</t>
   </si>
   <si>
@@ -365,9 +368,6 @@
   </si>
   <si>
     <t>יש את החברה ש... ש... ש... שצריך לקטוע להם את הרגליים בגיל ארבעים והם מתעוורים בגיל חמישים וכל מיני דברים כאלה.</t>
-  </si>
-  <si>
-    <t>concern</t>
   </si>
   <si>
     <t>אנחנו לא מדברים על המקרה הזה. יואב לא נמצא ב... בסיטואציה הזאתי. הבעיה של יואב...</t>
@@ -822,7 +822,7 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -892,7 +892,7 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>10</v>
@@ -1410,7 +1410,7 @@
         <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
         <v>10</v>
@@ -1508,7 +1508,7 @@
         <v>25</v>
       </c>
       <c r="C52" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D52" t="s">
         <v>10</v>
@@ -1774,7 +1774,7 @@
         <v>19</v>
       </c>
       <c r="C71" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D71" t="s">
         <v>10</v>
@@ -1886,7 +1886,7 @@
         <v>21</v>
       </c>
       <c r="C79" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D79" t="s">
         <v>10</v>
@@ -1956,7 +1956,7 @@
         <v>54</v>
       </c>
       <c r="C84" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="D84" t="s">
         <v>7</v>
@@ -1970,7 +1970,7 @@
         <v>25</v>
       </c>
       <c r="C85" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D85" t="s">
         <v>10</v>
@@ -1984,7 +1984,7 @@
         <v>107</v>
       </c>
       <c r="C86" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
       <c r="D86" t="s">
         <v>7</v>
@@ -1992,7 +1992,7 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B87" t="s">
         <v>85</v>
@@ -2006,7 +2006,7 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B88" t="s">
         <v>37</v>
@@ -2026,7 +2026,7 @@
         <v>19</v>
       </c>
       <c r="C89" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D89" t="s">
         <v>10</v>
@@ -2034,7 +2034,7 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B90" t="s">
         <v>23</v>
@@ -2048,7 +2048,7 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B91" t="s">
         <v>32</v>
@@ -2062,7 +2062,7 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B92" t="s">
         <v>47</v>
@@ -2076,7 +2076,7 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B93" t="s">
         <v>23</v>
@@ -2090,7 +2090,7 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B94" t="s">
         <v>21</v>
@@ -2104,7 +2104,7 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B95" t="s">
         <v>5</v>
@@ -2132,10 +2132,10 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B97" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C97" t="s">
         <v>6</v>
@@ -2163,7 +2163,7 @@
         <v>119</v>
       </c>
       <c r="B99" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C99" t="s">
         <v>6</v>
@@ -2222,7 +2222,7 @@
         <v>37</v>
       </c>
       <c r="C103" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D103" t="s">
         <v>7</v>
